--- a/08.Pteron/01.CTC/MDM/ファイル/4.【工数山積】TMC_MDM領域支援_260107.xlsx
+++ b/08.Pteron/01.CTC/MDM/ファイル/4.【工数山積】TMC_MDM領域支援_260107.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z5j7202\WorkSpaces\08.Pteron\01.CTC\MDM\ファイル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:101_{418972AB-C748-40D3-83EE-0B7AE8916D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D899D2B8-0636-4EBD-AA59-DBDB12E9D1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3052,11 +3052,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B55716-5424-42FF-8BE2-D968D2BB6905}">
-  <dimension ref="A1:Y74"/>
+  <dimension ref="A1:Y73"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K48" sqref="K48"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
@@ -7610,9 +7610,6 @@
     <row r="73" spans="1:22">
       <c r="Q73" s="6"/>
     </row>
-    <row r="74" spans="1:22">
-      <c r="Q74" s="6"/>
-    </row>
   </sheetData>
   <autoFilter ref="A3:V71" xr:uid="{FE8C9EB1-14B9-4E3A-B7D7-11FC4E9CE70D}"/>
   <mergeCells count="2">
@@ -7626,6 +7623,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1c07930f-9a65-4e8e-a9ee-3323c11bd589">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="dcfcef33-8a7e-49fa-a6a9-e6acaf5031ad" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010081A3424606A615478EAC718D252E4E17" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c1b06b141403b0bfe388b61020d369d1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1c07930f-9a65-4e8e-a9ee-3323c11bd589" xmlns:ns3="dcfcef33-8a7e-49fa-a6a9-e6acaf5031ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b2ff8d1cc6683d579df5389308ab8002" ns2:_="" ns3:_="">
     <xsd:import namespace="1c07930f-9a65-4e8e-a9ee-3323c11bd589"/>
@@ -7860,27 +7877,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{090CD69A-8DC7-4CFD-8C70-FED26B58F71A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="dcfcef33-8a7e-49fa-a6a9-e6acaf5031ad"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="1c07930f-9a65-4e8e-a9ee-3323c11bd589"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1c07930f-9a65-4e8e-a9ee-3323c11bd589">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="dcfcef33-8a7e-49fa-a6a9-e6acaf5031ad" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2254BF8C-D4D7-4CAC-865E-42DADC2282FA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78A08F3E-BFC2-4D9D-A2B8-A3FAA1B2CBCA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7897,29 +7919,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2254BF8C-D4D7-4CAC-865E-42DADC2282FA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{090CD69A-8DC7-4CFD-8C70-FED26B58F71A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="dcfcef33-8a7e-49fa-a6a9-e6acaf5031ad"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="1c07930f-9a65-4e8e-a9ee-3323c11bd589"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>